--- a/final.xlsx
+++ b/final.xlsx
@@ -444,7 +444,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>144278</v>
+        <v>144279</v>
       </c>
       <c r="F2" t="n">
         <v>7078</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>290400</v>
+        <v>290404</v>
       </c>
       <c r="F4" t="n">
         <v>14456</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>150438</v>
+        <v>150439</v>
       </c>
       <c r="F5" t="n">
         <v>8101</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>205979</v>
+        <v>205981</v>
       </c>
       <c r="F6" t="n">
         <v>13255</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85812</v>
+        <v>85813</v>
       </c>
       <c r="F7" t="n">
         <v>6415</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>182984</v>
+        <v>182986</v>
       </c>
       <c r="F8" t="n">
         <v>12569</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>112827</v>
+        <v>112828</v>
       </c>
       <c r="F9" t="n">
         <v>5024</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>543833</v>
+        <v>543835</v>
       </c>
       <c r="F10" t="n">
         <v>23275</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>166825</v>
+        <v>166826</v>
       </c>
       <c r="F11" t="n">
         <v>9525</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78529</v>
+        <v>81479</v>
       </c>
       <c r="F2" t="n">
-        <v>4625</v>
+        <v>4799</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144696</v>
+        <v>144703</v>
       </c>
       <c r="F3" t="n">
-        <v>7101</v>
+        <v>7102</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88865</v>
+        <v>88871</v>
       </c>
       <c r="F4" t="n">
-        <v>5258</v>
+        <v>5259</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290634</v>
+        <v>290639</v>
       </c>
       <c r="F5" t="n">
-        <v>14466</v>
+        <v>14467</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150546</v>
+        <v>150550</v>
       </c>
       <c r="F6" t="n">
-        <v>8106</v>
+        <v>8107</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206022</v>
+        <v>206025</v>
       </c>
       <c r="F7" t="n">
-        <v>13258</v>
+        <v>13259</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85879</v>
+        <v>85884</v>
       </c>
       <c r="F8" t="n">
-        <v>6420</v>
+        <v>6421</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183036</v>
+        <v>183038</v>
       </c>
       <c r="F9" t="n">
         <v>12567</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112894</v>
+        <v>112899</v>
       </c>
       <c r="F10" t="n">
         <v>5026</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543944</v>
+        <v>543948</v>
       </c>
       <c r="F11" t="n">
         <v>23270</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>81479</v>
+        <v>83296</v>
       </c>
       <c r="F2" t="n">
-        <v>4799</v>
+        <v>4894</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144703</v>
+        <v>144712</v>
       </c>
       <c r="F3" t="n">
-        <v>7102</v>
+        <v>7103</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88871</v>
+        <v>88876</v>
       </c>
       <c r="F4" t="n">
-        <v>5259</v>
+        <v>5261</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290639</v>
+        <v>290642</v>
       </c>
       <c r="F5" t="n">
-        <v>14467</v>
+        <v>14468</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150550</v>
+        <v>150554</v>
       </c>
       <c r="F6" t="n">
-        <v>8107</v>
+        <v>8108</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206025</v>
+        <v>206028</v>
       </c>
       <c r="F7" t="n">
         <v>13259</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85884</v>
+        <v>85888</v>
       </c>
       <c r="F8" t="n">
         <v>6421</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183038</v>
+        <v>183041</v>
       </c>
       <c r="F9" t="n">
         <v>12567</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112899</v>
+        <v>112901</v>
       </c>
       <c r="F10" t="n">
         <v>5026</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543948</v>
+        <v>543950</v>
       </c>
       <c r="F11" t="n">
         <v>23270</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>83296</v>
+        <v>84760</v>
       </c>
       <c r="F2" t="n">
-        <v>4894</v>
+        <v>4983</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144712</v>
+        <v>144717</v>
       </c>
       <c r="F3" t="n">
-        <v>7103</v>
+        <v>7104</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88876</v>
+        <v>88877</v>
       </c>
       <c r="F4" t="n">
         <v>5261</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290642</v>
+        <v>290647</v>
       </c>
       <c r="F5" t="n">
-        <v>14468</v>
+        <v>14471</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150554</v>
+        <v>150557</v>
       </c>
       <c r="F6" t="n">
         <v>8108</v>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206028</v>
+        <v>206031</v>
       </c>
       <c r="F7" t="n">
-        <v>13259</v>
+        <v>13260</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85888</v>
+        <v>85883</v>
       </c>
       <c r="F8" t="n">
         <v>6421</v>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183041</v>
+        <v>183045</v>
       </c>
       <c r="F9" t="n">
-        <v>12567</v>
+        <v>12569</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112901</v>
+        <v>112894</v>
       </c>
       <c r="F10" t="n">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543950</v>
+        <v>543953</v>
       </c>
       <c r="F11" t="n">
-        <v>23270</v>
+        <v>23269</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84760</v>
+        <v>85656</v>
       </c>
       <c r="F2" t="n">
-        <v>4983</v>
+        <v>5027</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144717</v>
+        <v>144724</v>
       </c>
       <c r="F3" t="n">
         <v>7104</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88877</v>
+        <v>88884</v>
       </c>
       <c r="F4" t="n">
         <v>5261</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290647</v>
+        <v>290652</v>
       </c>
       <c r="F5" t="n">
         <v>14471</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150557</v>
+        <v>150559</v>
       </c>
       <c r="F6" t="n">
         <v>8108</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206031</v>
+        <v>206033</v>
       </c>
       <c r="F7" t="n">
         <v>13260</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85883</v>
+        <v>85884</v>
       </c>
       <c r="F8" t="n">
         <v>6421</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183045</v>
+        <v>183047</v>
       </c>
       <c r="F9" t="n">
         <v>12569</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112894</v>
+        <v>112896</v>
       </c>
       <c r="F10" t="n">
         <v>5025</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543953</v>
+        <v>543955</v>
       </c>
       <c r="F11" t="n">
         <v>23269</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>85656</v>
+        <v>86542</v>
       </c>
       <c r="F2" t="n">
-        <v>5027</v>
+        <v>5061</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88884</v>
+        <v>88885</v>
       </c>
       <c r="F4" t="n">
         <v>5261</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290652</v>
+        <v>290656</v>
       </c>
       <c r="F5" t="n">
         <v>14471</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150559</v>
+        <v>150560</v>
       </c>
       <c r="F6" t="n">
         <v>8108</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543955</v>
+        <v>543957</v>
       </c>
       <c r="F11" t="n">
         <v>23269</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>86542</v>
+        <v>87335</v>
       </c>
       <c r="F2" t="n">
-        <v>5061</v>
+        <v>5117</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144724</v>
+        <v>144726</v>
       </c>
       <c r="F3" t="n">
         <v>7104</v>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88885</v>
+        <v>88888</v>
       </c>
       <c r="F4" t="n">
         <v>5261</v>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290656</v>
+        <v>290657</v>
       </c>
       <c r="F5" t="n">
         <v>14471</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150560</v>
+        <v>150561</v>
       </c>
       <c r="F6" t="n">
         <v>8108</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85884</v>
+        <v>85885</v>
       </c>
       <c r="F8" t="n">
         <v>6421</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -444,10 +444,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>87335</v>
+        <v>88664</v>
       </c>
       <c r="F2" t="n">
-        <v>5117</v>
+        <v>5178</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>144726</v>
+        <v>144733</v>
       </c>
       <c r="F3" t="n">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>88888</v>
+        <v>88895</v>
       </c>
       <c r="F4" t="n">
         <v>5261</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>290657</v>
+        <v>290661</v>
       </c>
       <c r="F5" t="n">
-        <v>14471</v>
+        <v>14468</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>150561</v>
+        <v>150564</v>
       </c>
       <c r="F6" t="n">
         <v>8108</v>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206033</v>
+        <v>206034</v>
       </c>
       <c r="F7" t="n">
-        <v>13260</v>
+        <v>13259</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>85885</v>
+        <v>85889</v>
       </c>
       <c r="F8" t="n">
         <v>6421</v>
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>183047</v>
+        <v>183046</v>
       </c>
       <c r="F9" t="n">
-        <v>12569</v>
+        <v>12567</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>112896</v>
+        <v>112904</v>
       </c>
       <c r="F10" t="n">
-        <v>5025</v>
+        <v>5026</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>543957</v>
+        <v>543959</v>
       </c>
       <c r="F11" t="n">
-        <v>23269</v>
+        <v>23270</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>

--- a/final.xlsx
+++ b/final.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>

--- a/final.xlsx
+++ b/final.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         <v>145</v>
       </c>
       <c r="F4" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
